--- a/data/trans_camb/P59A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>7.240573240635795</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.152455079726438</v>
+        <v>6.152455079726439</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.327782285210655</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.663181632006831</v>
+        <v>-1.434501116085414</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.062131962493058</v>
+        <v>1.637611495448447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.433731155551216</v>
+        <v>-2.578372108901398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.222165119240098</v>
+        <v>1.000789793510591</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.210000745160802</v>
+        <v>2.687998387751821</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.313250800866087</v>
+        <v>1.595679986389715</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.405805042664513</v>
+        <v>1.315282325326436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.680812783427581</v>
+        <v>3.70227298439998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.125346271748924</v>
+        <v>1.227950684456393</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.32635021327725</v>
+        <v>10.41480062451368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.8253558416579</v>
+        <v>13.88490349977831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.455455808085965</v>
+        <v>9.48010024230183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.31084732518401</v>
+        <v>12.01164016047989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.35970143027075</v>
+        <v>12.25519513011259</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.52879567648333</v>
+        <v>10.43756229849081</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.508022878700606</v>
+        <v>9.257111030845122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.3989639025003</v>
+        <v>11.46133722350145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.533147730245375</v>
+        <v>8.777883810584257</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1683152538491638</v>
+        <v>-0.131318625872796</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06248160565328881</v>
+        <v>0.1300930311516037</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2296678120494902</v>
+        <v>-0.2328186480122105</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08579465043681603</v>
+        <v>0.05009803309667585</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1888147266976808</v>
+        <v>0.2523435655691958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09405398895308152</v>
+        <v>0.1824212694711004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1283725645901121</v>
+        <v>0.1402725658830302</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3659116852592202</v>
+        <v>0.3695415922612676</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.08419294930656362</v>
+        <v>0.1242689879855807</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.409600773843831</v>
+        <v>1.506244565649951</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.916113598605898</v>
+        <v>1.913831040014224</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.278557136323588</v>
+        <v>1.385585376080344</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.030538632709975</v>
+        <v>2.840579334017053</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.943317696664999</v>
+        <v>3.309412549924899</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.534677807613449</v>
+        <v>2.797542365373359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.50202040747186</v>
+        <v>1.511032917260737</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.825787901017468</v>
+        <v>1.963406174019496</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.343626993237506</v>
+        <v>1.477096484849473</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.003954302840978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.950958640198165</v>
+        <v>4.950958640198159</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.005653555756187</v>
@@ -878,7 +878,7 @@
         <v>5.935270882609636</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.764854746739381</v>
+        <v>5.764854746739384</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.843068410727078</v>
+        <v>-2.043057978946781</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4900801228548812</v>
+        <v>-0.5564803629478304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5736445450533409</v>
+        <v>-0.383271158303988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7870649202391367</v>
+        <v>-0.9682708271269651</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.072136588690733</v>
+        <v>1.959384371734556</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.534799433887531</v>
+        <v>2.340594293231109</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1639746882988483</v>
+        <v>-0.3103142230109901</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.481825001255971</v>
+        <v>2.041247208354659</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.171742103209628</v>
+        <v>1.853342886599932</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.934338093442019</v>
+        <v>8.628749783641609</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.13130357682374</v>
+        <v>9.646993585954931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.52170951674845</v>
+        <v>11.34134541400676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.671763158153411</v>
+        <v>8.97350428321413</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.41692864709742</v>
+        <v>11.70652328863711</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.94665133187006</v>
+        <v>11.43742335990037</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.389201542485361</v>
+        <v>7.190815260973005</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.907798883571578</v>
+        <v>9.27397860962305</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.142489854644984</v>
+        <v>9.134251375414816</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.4244089155177752</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.419914103945133</v>
+        <v>0.4199141039451325</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4556984977513377</v>
@@ -983,7 +983,7 @@
         <v>0.5756282019791027</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5591005091712404</v>
+        <v>0.5591005091712407</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1389441962646115</v>
+        <v>-0.1467869707453013</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04076045341921521</v>
+        <v>-0.0383210666871262</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06824667586583509</v>
+        <v>-0.0341414927312515</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09134003606673995</v>
+        <v>-0.09885237138001875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1736106907381358</v>
+        <v>0.145070308380076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1164119686472406</v>
+        <v>0.1811050774299213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006340843869309697</v>
+        <v>-0.0237359631128591</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.184733624257835</v>
+        <v>0.17137035782276</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1680009065594253</v>
+        <v>0.1404382075814587</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9761183235560622</v>
+        <v>0.9139721640690318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.059132921612497</v>
+        <v>1.099588670718817</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.094030630548307</v>
+        <v>1.341293913622854</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.399739231904142</v>
+        <v>1.285158995781641</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.718358654065493</v>
+        <v>1.720502607320991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.63851306572061</v>
+        <v>1.756349333202058</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8255060184636104</v>
+        <v>0.8444481616232333</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.122569649537694</v>
+        <v>1.110606273433485</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.059269757435352</v>
+        <v>1.060169158370832</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.987208255489204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.396205815352795</v>
+        <v>5.396205815352792</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.253828450211631</v>
@@ -1083,7 +1083,7 @@
         <v>2.555709516781283</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.048018782471705</v>
+        <v>6.048018782471702</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.941221037176126</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.639633468464017</v>
+        <v>-1.659987650150464</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.095531481903532</v>
+        <v>-3.777577623721855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.012117373591604</v>
+        <v>-1.335549900585136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.297741896056174</v>
+        <v>-2.583053320262578</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.364682344569956</v>
+        <v>-2.649582902025166</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7261389564167563</v>
+        <v>0.199695591770097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2219663247048318</v>
+        <v>-0.164725359417089</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.448028590840426</v>
+        <v>-1.707879300368457</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.760335052089058</v>
+        <v>1.368697006187301</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.1033936614705</v>
+        <v>11.24791538511173</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.23282006350968</v>
+        <v>8.936251126997044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.08472952049474</v>
+        <v>12.29965358051488</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.053189608703022</v>
+        <v>8.615349507941886</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.760657130883036</v>
+        <v>7.752489749580199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.96789869683313</v>
+        <v>11.1988100398125</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.800066239312862</v>
+        <v>8.673882694776943</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.905307755655116</v>
+        <v>6.605038295240069</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.861477203706935</v>
+        <v>10.09127941303003</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2120572652660709</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3830682530800596</v>
+        <v>0.3830682530800594</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.296530730213556</v>
@@ -1188,7 +1188,7 @@
         <v>0.2329091471234747</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5511733188622747</v>
+        <v>0.5511733188622745</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3169946890391176</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1501865376303425</v>
+        <v>-0.1154745015250118</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2296792410292559</v>
+        <v>-0.2141912902405635</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1321436238680604</v>
+        <v>-0.07804843844937184</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.182004836906877</v>
+        <v>-0.1974496894527279</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2379020168850614</v>
+        <v>-0.1892537882871412</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03250368300393052</v>
+        <v>0.02028455284890512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02130343144262476</v>
+        <v>-0.01176721708167365</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1030515160785199</v>
+        <v>-0.1130717975228749</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1214517054796408</v>
+        <v>0.09231598941667918</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.024286261423582</v>
+        <v>1.103888851296317</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8202384664007908</v>
+        <v>0.85102979747476</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.131428197995394</v>
+        <v>1.083063404784747</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.109003478064903</v>
+        <v>1.062526581077452</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.021427524549469</v>
+        <v>1.005527955620088</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.399408774738201</v>
+        <v>1.463836459654033</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8472101269152666</v>
+        <v>0.8658696561626682</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.670388611740651</v>
+        <v>0.6425435538729274</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9739718457437478</v>
+        <v>0.9946767963079912</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.6962582285027052</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.669795987639226</v>
+        <v>-1.669795987639231</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1276488405708098</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.325990073701133</v>
+        <v>-8.954927310702264</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.592583032926994</v>
+        <v>-4.355568254627907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.933404936518205</v>
+        <v>-6.378233800591232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.193751167506675</v>
+        <v>-1.02526516549262</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.51015269129975</v>
+        <v>-3.849634605105759</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.793891963371876</v>
+        <v>-5.720985863754228</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.394854430938696</v>
+        <v>-3.346546639056518</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.880410623809595</v>
+        <v>-2.677799687487432</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.937720346283411</v>
+        <v>-5.23880778805959</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.577188940273191</v>
+        <v>1.330631393820166</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.118987590050323</v>
+        <v>6.103016270785417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.331534202105883</v>
+        <v>4.06669325057932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.610776975516982</v>
+        <v>8.085179706037184</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.92995187058092</v>
+        <v>4.737990971503289</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.096666442445946</v>
+        <v>2.200880467408513</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.58330749353455</v>
+        <v>3.640960907948156</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.060390076199055</v>
+        <v>4.187104222947908</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.292315964393843</v>
+        <v>1.271310054969518</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.05338123188079812</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.128021132334021</v>
+        <v>-0.1280211323340213</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.00845493719851665</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4106060059436371</v>
+        <v>-0.4452124763947211</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2279802894524929</v>
+        <v>-0.2185986295933297</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3546924223724494</v>
+        <v>-0.3202816629953733</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0755141779045348</v>
+        <v>-0.07249282806853143</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2434784613316378</v>
+        <v>-0.2549825534014792</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3723738573605583</v>
+        <v>-0.3646070631890334</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2110776617855786</v>
+        <v>-0.2066907252263011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1696961589374819</v>
+        <v>-0.1538261900348059</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2931272870871231</v>
+        <v>-0.3052883750893031</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1319270756369892</v>
+        <v>0.08701530356913011</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4216771978653415</v>
+        <v>0.4087207683042312</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2332066270052504</v>
+        <v>0.2693752549608421</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7117598069772429</v>
+        <v>0.7380822111368471</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4719301092107694</v>
+        <v>0.4411869925673294</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2054698394250999</v>
+        <v>0.2042844949914673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.262659513290503</v>
+        <v>0.2743887437398003</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3050232643749684</v>
+        <v>0.3185487648267632</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.09128981818954013</v>
+        <v>0.1018026104988816</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>3.799029486683682</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.10071591849571</v>
+        <v>3.100715918495707</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.400739630199861</v>
+        <v>-1.036598902784986</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9687056725208859</v>
+        <v>1.088292975751248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2198309687180416</v>
+        <v>-0.2448711353073303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.694058523597776</v>
+        <v>1.604483674913488</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.406218629832959</v>
+        <v>1.624587818747542</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.165515601687285</v>
+        <v>1.219890833572135</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.067732494470189</v>
+        <v>0.874092158650413</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.930508688228859</v>
+        <v>1.985744982890754</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.379094303442914</v>
+        <v>1.12743181333291</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.286999572334635</v>
+        <v>4.541637952771295</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.425852793502419</v>
+        <v>6.783216255047336</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.437599337600925</v>
+        <v>5.744812201324862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.72645152758094</v>
+        <v>6.788239991254643</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.115047707850193</v>
+        <v>6.407997810856648</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.789859120543746</v>
+        <v>5.829119000674901</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.83357715780578</v>
+        <v>4.764690096776265</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.660994450797285</v>
+        <v>5.794798899977387</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.982936905482014</v>
+        <v>4.800732832152165</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.3193812291113401</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2606745919307769</v>
+        <v>0.2606745919307767</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09505951200277757</v>
+        <v>-0.0687354381938164</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06151121376373115</v>
+        <v>0.06932217308028382</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01519904981949697</v>
+        <v>-0.01464516321175163</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1370776006009132</v>
+        <v>0.1469991145564151</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1196127294101944</v>
+        <v>0.1346600659761175</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1077470989356924</v>
+        <v>0.1031360152209869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08399675208351649</v>
+        <v>0.06838747594245324</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1472153796687067</v>
+        <v>0.1480258899339805</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1060863682518462</v>
+        <v>0.08869442051392111</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3387057090009631</v>
+        <v>0.3673240210276303</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5264061849250011</v>
+        <v>0.5339148096892691</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4510038104943531</v>
+        <v>0.4752935683159482</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7121738565047037</v>
+        <v>0.7533185648694425</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6774954246314857</v>
+        <v>0.6870248829354851</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.657555375122262</v>
+        <v>0.640015424398456</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4400196419816858</v>
+        <v>0.4329904933327515</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5126463591928457</v>
+        <v>0.5241798287309692</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4606408436617801</v>
+        <v>0.4402904298979106</v>
       </c>
     </row>
     <row r="34">
